--- a/donations_multicollinearity.xlsx
+++ b/donations_multicollinearity.xlsx
@@ -8,32 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\Tutorial 4.1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCB23B4-E0F0-43CB-AF21-4002FB8D2399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2576918A-B005-4FB8-9077-DB7E537E0AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Donations</t>
+  </si>
   <si>
     <t>Shares</t>
   </si>
@@ -42,9 +32,6 @@
   </si>
   <si>
     <t>Num_Email_Subscribers</t>
-  </si>
-  <si>
-    <t>Donations</t>
   </si>
 </sst>
 </file>
@@ -88,12 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,32 +383,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B94DD8-1BE9-4979-B805-BEA549B56DFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -433,7 +420,7 @@
         <v>222</v>
       </c>
       <c r="C2">
-        <v>2182.81</v>
+        <v>254.70261729838319</v>
       </c>
       <c r="D2">
         <v>1556</v>
@@ -447,7 +434,7 @@
         <v>97</v>
       </c>
       <c r="C3">
-        <v>844.13</v>
+        <v>92.757860418361162</v>
       </c>
       <c r="D3">
         <v>1885</v>
@@ -461,7 +448,7 @@
         <v>167</v>
       </c>
       <c r="C4">
-        <v>1594.65</v>
+        <v>174.18689920528701</v>
       </c>
       <c r="D4">
         <v>3813</v>
@@ -475,7 +462,7 @@
         <v>242</v>
       </c>
       <c r="C5">
-        <v>2477.4499999999998</v>
+        <v>293.54465996007292</v>
       </c>
       <c r="D5">
         <v>2346</v>
@@ -489,7 +476,7 @@
         <v>373</v>
       </c>
       <c r="C6">
-        <v>3670.32</v>
+        <v>373.12789950749828</v>
       </c>
       <c r="D6">
         <v>4695</v>
@@ -503,7 +490,7 @@
         <v>301</v>
       </c>
       <c r="C7">
-        <v>3067.05</v>
+        <v>176.8861060061794</v>
       </c>
       <c r="D7">
         <v>3139</v>
@@ -517,7 +504,7 @@
         <v>245</v>
       </c>
       <c r="C8">
-        <v>2525.4699999999998</v>
+        <v>231.25442087627951</v>
       </c>
       <c r="D8">
         <v>4413</v>
@@ -531,7 +518,7 @@
         <v>409</v>
       </c>
       <c r="C9">
-        <v>4143.3900000000003</v>
+        <v>299.18213958511512</v>
       </c>
       <c r="D9">
         <v>1423</v>
@@ -545,7 +532,7 @@
         <v>59</v>
       </c>
       <c r="C10">
-        <v>555.66999999999996</v>
+        <v>39.089057410322113</v>
       </c>
       <c r="D10">
         <v>4623</v>
@@ -559,7 +546,7 @@
         <v>261</v>
       </c>
       <c r="C11">
-        <v>2610.7399999999998</v>
+        <v>216.27992509691859</v>
       </c>
       <c r="D11">
         <v>4734</v>
@@ -573,7 +560,7 @@
         <v>327</v>
       </c>
       <c r="C12">
-        <v>3251.22</v>
+        <v>252.4521785580439</v>
       </c>
       <c r="D12">
         <v>4486</v>
@@ -587,7 +574,7 @@
         <v>292</v>
       </c>
       <c r="C13">
-        <v>2918.09</v>
+        <v>291.71367534814868</v>
       </c>
       <c r="D13">
         <v>4729</v>
@@ -601,7 +588,7 @@
         <v>342</v>
       </c>
       <c r="C14">
-        <v>3438.4</v>
+        <v>294.55188625734968</v>
       </c>
       <c r="D14">
         <v>3758</v>
@@ -615,7 +602,7 @@
         <v>137</v>
       </c>
       <c r="C15">
-        <v>1367.76</v>
+        <v>108.8337508246414</v>
       </c>
       <c r="D15">
         <v>1967</v>
@@ -629,7 +616,7 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>1184.8800000000001</v>
+        <v>112.1931616372713</v>
       </c>
       <c r="D16">
         <v>1274</v>
@@ -643,7 +630,7 @@
         <v>138</v>
       </c>
       <c r="C17">
-        <v>1268.78</v>
+        <v>120.18371636871331</v>
       </c>
       <c r="D17">
         <v>1860</v>
@@ -657,7 +644,7 @@
         <v>446</v>
       </c>
       <c r="C18">
-        <v>4496.2</v>
+        <v>409.20395365788028</v>
       </c>
       <c r="D18">
         <v>3091</v>
@@ -671,7 +658,7 @@
         <v>364</v>
       </c>
       <c r="C19">
-        <v>3657.95</v>
+        <v>262.74208681171001</v>
       </c>
       <c r="D19">
         <v>2107</v>
@@ -685,7 +672,7 @@
         <v>243</v>
       </c>
       <c r="C20">
-        <v>2483.81</v>
+        <v>197.9033850825451</v>
       </c>
       <c r="D20">
         <v>1433</v>
@@ -699,7 +686,7 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>899.61</v>
+        <v>24.045213034913761</v>
       </c>
       <c r="D21">
         <v>1809</v>
@@ -713,7 +700,7 @@
         <v>137</v>
       </c>
       <c r="C22">
-        <v>1412.65</v>
+        <v>-24.89949079170394</v>
       </c>
       <c r="D22">
         <v>3141</v>
@@ -727,7 +714,7 @@
         <v>224</v>
       </c>
       <c r="C23">
-        <v>2240.92</v>
+        <v>200.680929772018</v>
       </c>
       <c r="D23">
         <v>2198</v>
@@ -741,7 +728,7 @@
         <v>138</v>
       </c>
       <c r="C24">
-        <v>1401.42</v>
+        <v>146.72180994297531</v>
       </c>
       <c r="D24">
         <v>2429</v>
@@ -755,7 +742,7 @@
         <v>387</v>
       </c>
       <c r="C25">
-        <v>3919.81</v>
+        <v>253.14174897967791</v>
       </c>
       <c r="D25">
         <v>1201</v>
@@ -769,7 +756,7 @@
         <v>215</v>
       </c>
       <c r="C26">
-        <v>2125.44</v>
+        <v>274.73773119938039</v>
       </c>
       <c r="D26">
         <v>4929</v>
@@ -783,7 +770,7 @@
         <v>75</v>
       </c>
       <c r="C27">
-        <v>785.63</v>
+        <v>-16.468283729938239</v>
       </c>
       <c r="D27">
         <v>3546</v>
@@ -797,7 +784,7 @@
         <v>383</v>
       </c>
       <c r="C28">
-        <v>3885.67</v>
+        <v>289.53792586507228</v>
       </c>
       <c r="D28">
         <v>3528</v>
@@ -811,7 +798,7 @@
         <v>122</v>
       </c>
       <c r="C29">
-        <v>1112.32</v>
+        <v>82.140807498708313</v>
       </c>
       <c r="D29">
         <v>3011</v>
@@ -825,7 +812,7 @@
         <v>315</v>
       </c>
       <c r="C30">
-        <v>3129.19</v>
+        <v>312.88896071792288</v>
       </c>
       <c r="D30">
         <v>1329</v>
@@ -839,7 +826,7 @@
         <v>454</v>
       </c>
       <c r="C31">
-        <v>4486.46</v>
+        <v>413.96793849501432</v>
       </c>
       <c r="D31">
         <v>4612</v>
@@ -853,7 +840,7 @@
         <v>165</v>
       </c>
       <c r="C32">
-        <v>1661.06</v>
+        <v>131.4973712848458</v>
       </c>
       <c r="D32">
         <v>1209</v>
@@ -867,7 +854,7 @@
         <v>293</v>
       </c>
       <c r="C33">
-        <v>2873.85</v>
+        <v>238.65812598010871</v>
       </c>
       <c r="D33">
         <v>3665</v>
@@ -881,7 +868,7 @@
         <v>247</v>
       </c>
       <c r="C34">
-        <v>2417.46</v>
+        <v>140.86071261849429</v>
       </c>
       <c r="D34">
         <v>2978</v>
@@ -895,7 +882,7 @@
         <v>385</v>
       </c>
       <c r="C35">
-        <v>3900.6</v>
+        <v>189.71017658880359</v>
       </c>
       <c r="D35">
         <v>4968</v>
@@ -909,7 +896,7 @@
         <v>481</v>
       </c>
       <c r="C36">
-        <v>4887.1899999999996</v>
+        <v>343.35439253369242</v>
       </c>
       <c r="D36">
         <v>4647</v>
@@ -923,7 +910,7 @@
         <v>498</v>
       </c>
       <c r="C37">
-        <v>4959.8900000000003</v>
+        <v>381.31744845519898</v>
       </c>
       <c r="D37">
         <v>2040</v>
@@ -937,7 +924,7 @@
         <v>388</v>
       </c>
       <c r="C38">
-        <v>3923.24</v>
+        <v>352.51453403638612</v>
       </c>
       <c r="D38">
         <v>3154</v>
@@ -951,7 +938,7 @@
         <v>149</v>
       </c>
       <c r="C39">
-        <v>1478.66</v>
+        <v>171.86899243922059</v>
       </c>
       <c r="D39">
         <v>1164</v>
@@ -965,7 +952,7 @@
         <v>227</v>
       </c>
       <c r="C40">
-        <v>2310.56</v>
+        <v>150.88365912960239</v>
       </c>
       <c r="D40">
         <v>1606</v>
@@ -979,7 +966,7 @@
         <v>293</v>
       </c>
       <c r="C41">
-        <v>2944.39</v>
+        <v>204.63486247123319</v>
       </c>
       <c r="D41">
         <v>4608</v>
@@ -993,7 +980,7 @@
         <v>335</v>
       </c>
       <c r="C42">
-        <v>3323.08</v>
+        <v>198.82235174664541</v>
       </c>
       <c r="D42">
         <v>3676</v>
@@ -1007,7 +994,7 @@
         <v>197</v>
       </c>
       <c r="C43">
-        <v>2065.42</v>
+        <v>76.749103141051236</v>
       </c>
       <c r="D43">
         <v>2215</v>
@@ -1021,7 +1008,7 @@
         <v>197</v>
       </c>
       <c r="C44">
-        <v>1946.21</v>
+        <v>62.436490468749369</v>
       </c>
       <c r="D44">
         <v>2219</v>
@@ -1035,7 +1022,7 @@
         <v>448</v>
       </c>
       <c r="C45">
-        <v>4552.04</v>
+        <v>433.53876976158949</v>
       </c>
       <c r="D45">
         <v>2331</v>
@@ -1049,7 +1036,7 @@
         <v>473</v>
       </c>
       <c r="C46">
-        <v>4672.55</v>
+        <v>329.26739091241728</v>
       </c>
       <c r="D46">
         <v>1136</v>
@@ -1063,7 +1050,7 @@
         <v>338</v>
       </c>
       <c r="C47">
-        <v>3420.29</v>
+        <v>231.59628491944071</v>
       </c>
       <c r="D47">
         <v>1952</v>
@@ -1077,7 +1064,7 @@
         <v>499</v>
       </c>
       <c r="C48">
-        <v>5077.8100000000004</v>
+        <v>311.61023199750372</v>
       </c>
       <c r="D48">
         <v>1859</v>
@@ -1091,7 +1078,7 @@
         <v>315</v>
       </c>
       <c r="C49">
-        <v>3198.65</v>
+        <v>275.12451779159551</v>
       </c>
       <c r="D49">
         <v>4165</v>
@@ -1105,7 +1092,7 @@
         <v>235</v>
       </c>
       <c r="C50">
-        <v>2272.44</v>
+        <v>95.555107622102426</v>
       </c>
       <c r="D50">
         <v>2915</v>
@@ -1119,7 +1106,7 @@
         <v>177</v>
       </c>
       <c r="C51">
-        <v>1779.56</v>
+        <v>122.11298598930161</v>
       </c>
       <c r="D51">
         <v>3798</v>
@@ -1133,7 +1120,7 @@
         <v>82</v>
       </c>
       <c r="C52">
-        <v>900.24</v>
+        <v>16.726671940316219</v>
       </c>
       <c r="D52">
         <v>2111</v>
@@ -1147,7 +1134,7 @@
         <v>81</v>
       </c>
       <c r="C53">
-        <v>739</v>
+        <v>80.095124892963099</v>
       </c>
       <c r="D53">
         <v>1160</v>
@@ -1161,7 +1148,7 @@
         <v>252</v>
       </c>
       <c r="C54">
-        <v>2397.81</v>
+        <v>163.45974312155639</v>
       </c>
       <c r="D54">
         <v>3195</v>
@@ -1175,7 +1162,7 @@
         <v>294</v>
       </c>
       <c r="C55">
-        <v>2837.18</v>
+        <v>161.46839079387939</v>
       </c>
       <c r="D55">
         <v>1584</v>
@@ -1189,7 +1176,7 @@
         <v>201</v>
       </c>
       <c r="C56">
-        <v>1960.39</v>
+        <v>149.34088858306731</v>
       </c>
       <c r="D56">
         <v>3503</v>
@@ -1203,7 +1190,7 @@
         <v>213</v>
       </c>
       <c r="C57">
-        <v>2180.56</v>
+        <v>181.1665935265209</v>
       </c>
       <c r="D57">
         <v>2111</v>
@@ -1217,7 +1204,7 @@
         <v>420</v>
       </c>
       <c r="C58">
-        <v>4270.0200000000004</v>
+        <v>318.32586111915839</v>
       </c>
       <c r="D58">
         <v>4085</v>
@@ -1231,7 +1218,7 @@
         <v>233</v>
       </c>
       <c r="C59">
-        <v>2297.25</v>
+        <v>189.87359488698911</v>
       </c>
       <c r="D59">
         <v>4386</v>
@@ -1245,7 +1232,7 @@
         <v>78</v>
       </c>
       <c r="C60">
-        <v>767.21</v>
+        <v>26.78389531595182</v>
       </c>
       <c r="D60">
         <v>2617</v>
@@ -1259,7 +1246,7 @@
         <v>340</v>
       </c>
       <c r="C61">
-        <v>3364.28</v>
+        <v>236.86294170064309</v>
       </c>
       <c r="D61">
         <v>2144</v>
@@ -1273,7 +1260,7 @@
         <v>178</v>
       </c>
       <c r="C62">
-        <v>1754.96</v>
+        <v>99.876977611202449</v>
       </c>
       <c r="D62">
         <v>2908</v>
@@ -1287,7 +1274,7 @@
         <v>178</v>
       </c>
       <c r="C63">
-        <v>1782.78</v>
+        <v>115.5223419229729</v>
       </c>
       <c r="D63">
         <v>3999</v>
@@ -1301,7 +1288,7 @@
         <v>470</v>
       </c>
       <c r="C64">
-        <v>4675.55</v>
+        <v>311.8426858977773</v>
       </c>
       <c r="D64">
         <v>3880</v>
@@ -1315,7 +1302,7 @@
         <v>103</v>
       </c>
       <c r="C65">
-        <v>1011</v>
+        <v>-9.0641301165838399</v>
       </c>
       <c r="D65">
         <v>3763</v>
@@ -1329,7 +1316,7 @@
         <v>439</v>
       </c>
       <c r="C66">
-        <v>4402.99</v>
+        <v>338.12130711268759</v>
       </c>
       <c r="D66">
         <v>1732</v>
@@ -1343,7 +1330,7 @@
         <v>88</v>
       </c>
       <c r="C67">
-        <v>795.93</v>
+        <v>45.910953189586913</v>
       </c>
       <c r="D67">
         <v>1932</v>
@@ -1357,7 +1344,7 @@
         <v>294</v>
       </c>
       <c r="C68">
-        <v>2894.16</v>
+        <v>138.9900826516978</v>
       </c>
       <c r="D68">
         <v>1281</v>
@@ -1371,7 +1358,7 @@
         <v>323</v>
       </c>
       <c r="C69">
-        <v>3224.04</v>
+        <v>265.3891127762887</v>
       </c>
       <c r="D69">
         <v>1800</v>
@@ -1385,7 +1372,7 @@
         <v>385</v>
       </c>
       <c r="C70">
-        <v>3827.69</v>
+        <v>243.38508178083791</v>
       </c>
       <c r="D70">
         <v>4498</v>
@@ -1399,7 +1386,7 @@
         <v>438</v>
       </c>
       <c r="C71">
-        <v>4272.83</v>
+        <v>331.09726978980689</v>
       </c>
       <c r="D71">
         <v>4854</v>
@@ -1413,7 +1400,7 @@
         <v>155</v>
       </c>
       <c r="C72">
-        <v>1550.5</v>
+        <v>152.70452810887679</v>
       </c>
       <c r="D72">
         <v>1470</v>
@@ -1427,7 +1414,7 @@
         <v>92</v>
       </c>
       <c r="C73">
-        <v>892.09</v>
+        <v>75.449145537870535</v>
       </c>
       <c r="D73">
         <v>2308</v>
@@ -1441,7 +1428,7 @@
         <v>492</v>
       </c>
       <c r="C74">
-        <v>4944.05</v>
+        <v>425.97003422716512</v>
       </c>
       <c r="D74">
         <v>4348</v>
@@ -1455,7 +1442,7 @@
         <v>81</v>
       </c>
       <c r="C75">
-        <v>781.29</v>
+        <v>-0.99129101768263439</v>
       </c>
       <c r="D75">
         <v>4396</v>
@@ -1469,7 +1456,7 @@
         <v>426</v>
       </c>
       <c r="C76">
-        <v>4247.38</v>
+        <v>339.61708205887737</v>
       </c>
       <c r="D76">
         <v>2558</v>
@@ -1483,7 +1470,7 @@
         <v>307</v>
       </c>
       <c r="C77">
-        <v>3121.99</v>
+        <v>196.00949545298431</v>
       </c>
       <c r="D77">
         <v>2251</v>
@@ -1497,7 +1484,7 @@
         <v>371</v>
       </c>
       <c r="C78">
-        <v>3708.83</v>
+        <v>234.71014254090591</v>
       </c>
       <c r="D78">
         <v>3938</v>
@@ -1511,7 +1498,7 @@
         <v>475</v>
       </c>
       <c r="C79">
-        <v>4754.47</v>
+        <v>327.3075167617792</v>
       </c>
       <c r="D79">
         <v>1595</v>
@@ -1525,7 +1512,7 @@
         <v>107</v>
       </c>
       <c r="C80">
-        <v>1040.28</v>
+        <v>64.672373393631375</v>
       </c>
       <c r="D80">
         <v>1647</v>
@@ -1539,7 +1526,7 @@
         <v>341</v>
       </c>
       <c r="C81">
-        <v>3404.72</v>
+        <v>258.55826711148728</v>
       </c>
       <c r="D81">
         <v>1573</v>
@@ -1553,7 +1540,7 @@
         <v>408</v>
       </c>
       <c r="C82">
-        <v>4117.1400000000003</v>
+        <v>247.7425079608322</v>
       </c>
       <c r="D82">
         <v>3701</v>
@@ -1567,7 +1554,7 @@
         <v>169</v>
       </c>
       <c r="C83">
-        <v>1652.25</v>
+        <v>171.79132434770929</v>
       </c>
       <c r="D83">
         <v>2541</v>
@@ -1581,7 +1568,7 @@
         <v>317</v>
       </c>
       <c r="C84">
-        <v>3163.09</v>
+        <v>261.03312198652299</v>
       </c>
       <c r="D84">
         <v>1256</v>
@@ -1595,7 +1582,7 @@
         <v>480</v>
       </c>
       <c r="C85">
-        <v>4693.75</v>
+        <v>283.18781568613878</v>
       </c>
       <c r="D85">
         <v>4208</v>
@@ -1609,7 +1596,7 @@
         <v>132</v>
       </c>
       <c r="C86">
-        <v>1268.5</v>
+        <v>173.41260968978</v>
       </c>
       <c r="D86">
         <v>4279</v>
@@ -1623,7 +1610,7 @@
         <v>141</v>
       </c>
       <c r="C87">
-        <v>1384.13</v>
+        <v>200.5444588015292</v>
       </c>
       <c r="D87">
         <v>3511</v>
@@ -1637,7 +1624,7 @@
         <v>434</v>
       </c>
       <c r="C88">
-        <v>4332.91</v>
+        <v>384.43897855798252</v>
       </c>
       <c r="D88">
         <v>2163</v>
@@ -1651,7 +1638,7 @@
         <v>448</v>
       </c>
       <c r="C89">
-        <v>4416.18</v>
+        <v>327.00375820938251</v>
       </c>
       <c r="D89">
         <v>2028</v>
@@ -1665,7 +1652,7 @@
         <v>149</v>
       </c>
       <c r="C90">
-        <v>1564.08</v>
+        <v>58.212368924472877</v>
       </c>
       <c r="D90">
         <v>3471</v>
@@ -1679,7 +1666,7 @@
         <v>103</v>
       </c>
       <c r="C91">
-        <v>1112.96</v>
+        <v>129.9725863465568</v>
       </c>
       <c r="D91">
         <v>1348</v>
@@ -1693,7 +1680,7 @@
         <v>446</v>
       </c>
       <c r="C92">
-        <v>4460.01</v>
+        <v>314.34115265134102</v>
       </c>
       <c r="D92">
         <v>3989</v>
@@ -1707,7 +1694,7 @@
         <v>171</v>
       </c>
       <c r="C93">
-        <v>1785.29</v>
+        <v>189.37225351912139</v>
       </c>
       <c r="D93">
         <v>2306</v>
@@ -1721,7 +1708,7 @@
         <v>476</v>
       </c>
       <c r="C94">
-        <v>4765.2299999999996</v>
+        <v>367.41374890384299</v>
       </c>
       <c r="D94">
         <v>1586</v>
@@ -1735,7 +1722,7 @@
         <v>134</v>
       </c>
       <c r="C95">
-        <v>1328.2</v>
+        <v>149.33195182418561</v>
       </c>
       <c r="D95">
         <v>2844</v>
@@ -1749,7 +1736,7 @@
         <v>253</v>
       </c>
       <c r="C96">
-        <v>2570.9699999999998</v>
+        <v>207.56831985872009</v>
       </c>
       <c r="D96">
         <v>2006</v>
@@ -1763,7 +1750,7 @@
         <v>374</v>
       </c>
       <c r="C97">
-        <v>3760.14</v>
+        <v>315.82865840959738</v>
       </c>
       <c r="D97">
         <v>4505</v>
@@ -1777,7 +1764,7 @@
         <v>312</v>
       </c>
       <c r="C98">
-        <v>3048.09</v>
+        <v>234.525001036041</v>
       </c>
       <c r="D98">
         <v>4291</v>
@@ -1791,7 +1778,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>983.56</v>
+        <v>162.04352469529181</v>
       </c>
       <c r="D99">
         <v>3867</v>
@@ -1805,7 +1792,7 @@
         <v>177</v>
       </c>
       <c r="C100">
-        <v>1735.47</v>
+        <v>139.09560463518099</v>
       </c>
       <c r="D100">
         <v>1739</v>
@@ -1819,7 +1806,7 @@
         <v>181</v>
       </c>
       <c r="C101">
-        <v>1775.92</v>
+        <v>155.84946817223511</v>
       </c>
       <c r="D101">
         <v>1873</v>
